--- a/public/data/lime/lime_table_benin.xlsx
+++ b/public/data/lime/lime_table_benin.xlsx
@@ -1750,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.73</v>
+        <v>0.44</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.88</v>
+        <v>0.55</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1985,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.17</v>
+        <v>0.86</v>
       </c>
       <c r="K13" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.61</v>
+        <v>0.24</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.15</v>
+        <v>0.85</v>
       </c>
       <c r="K16" t="n">
-        <v>0.29</v>
+        <v>0.07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2155,13 +2155,13 @@
         <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>4.11</v>
+        <v>2.7</v>
       </c>
       <c r="E17" t="n">
-        <v>1.55</v>
+        <v>0.08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.04</v>
+        <v>1.67</v>
       </c>
       <c r="K17" t="n">
-        <v>0.92</v>
+        <v>0.17</v>
       </c>
       <c r="L17" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2220,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>1.26</v>
       </c>
       <c r="K18" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>7.72</v>
+        <v>4.24</v>
       </c>
       <c r="E19" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2267,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.7</v>
+        <v>1.28</v>
       </c>
       <c r="K19" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2314,16 +2314,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.94</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2343,13 +2343,13 @@
         <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>5.27</v>
+        <v>3.05</v>
       </c>
       <c r="E21" t="n">
-        <v>2.48</v>
+        <v>0.03</v>
       </c>
       <c r="F21" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>2.58</v>
       </c>
       <c r="K21" t="n">
-        <v>1.44</v>
+        <v>0.13</v>
       </c>
       <c r="L21" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.88</v>
+        <v>0.81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>112</v>
       </c>
       <c r="D24" t="n">
-        <v>4.77</v>
+        <v>3.14</v>
       </c>
       <c r="E24" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.21</v>
+        <v>0.89</v>
       </c>
       <c r="K24" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.82</v>
+        <v>0.36</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.68</v>
+        <v>0.31</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
       <c r="K28" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2737,16 +2737,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="K29" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2784,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2831,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2878,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7</v>
+        <v>0.28</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.87</v>
+        <v>0.36</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3066,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="K36" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3207,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.42</v>
+        <v>0.99</v>
       </c>
       <c r="K39" t="n">
-        <v>0.58</v>
+        <v>0.26</v>
       </c>
       <c r="L39" t="n">
-        <v>0.21</v>
+        <v>0.07</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.65</v>
+        <v>0.27</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3301,16 +3301,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.98</v>
+        <v>0.59</v>
       </c>
       <c r="K41" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>138</v>
       </c>
       <c r="D46" t="n">
-        <v>2.66</v>
+        <v>0.78</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.64</v>
+        <v>0.86</v>
       </c>
       <c r="K50" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.13</v>
+        <v>0.48</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.35</v>
+        <v>1.55</v>
       </c>
       <c r="K52" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.99</v>
+        <v>0.33</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3959,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.17</v>
+        <v>1.59</v>
       </c>
       <c r="K55" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>150</v>
       </c>
       <c r="D56" t="n">
-        <v>2.68</v>
+        <v>0.97</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4006,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.26</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4035,13 +4035,13 @@
         <v>152</v>
       </c>
       <c r="D57" t="n">
-        <v>5.39</v>
+        <v>4.18</v>
       </c>
       <c r="E57" t="n">
-        <v>3.37</v>
+        <v>0.9</v>
       </c>
       <c r="F57" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="K57" t="n">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.61</v>
+        <v>2.16</v>
       </c>
       <c r="K58" t="n">
-        <v>1.1</v>
+        <v>0.03</v>
       </c>
       <c r="L58" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4129,13 +4129,13 @@
         <v>154</v>
       </c>
       <c r="D59" t="n">
-        <v>7.29</v>
+        <v>4.96</v>
       </c>
       <c r="E59" t="n">
-        <v>4.23</v>
+        <v>0.36</v>
       </c>
       <c r="F59" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>5.53</v>
+        <v>3.98</v>
       </c>
       <c r="K59" t="n">
-        <v>3.39</v>
+        <v>0.06</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4176,13 +4176,13 @@
         <v>155</v>
       </c>
       <c r="D60" t="n">
-        <v>8.38</v>
+        <v>6.95</v>
       </c>
       <c r="E60" t="n">
-        <v>5.88</v>
+        <v>2.8</v>
       </c>
       <c r="F60" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.49</v>
+        <v>1.76</v>
       </c>
       <c r="K60" t="n">
-        <v>1.39</v>
+        <v>0.48</v>
       </c>
       <c r="L60" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4223,13 +4223,13 @@
         <v>156</v>
       </c>
       <c r="D61" t="n">
-        <v>3.86</v>
+        <v>3.05</v>
       </c>
       <c r="E61" t="n">
-        <v>2.71</v>
+        <v>1.11</v>
       </c>
       <c r="F61" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4241,16 +4241,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.79</v>
+        <v>1.2</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="L61" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.4</v>
+        <v>0.36</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4317,13 +4317,13 @@
         <v>158</v>
       </c>
       <c r="D63" t="n">
-        <v>6.95</v>
+        <v>5.09</v>
       </c>
       <c r="E63" t="n">
-        <v>3.8</v>
+        <v>0.31</v>
       </c>
       <c r="F63" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -4335,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.66</v>
+        <v>3.1</v>
       </c>
       <c r="K63" t="n">
-        <v>1.92</v>
+        <v>0.23</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="M63" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4364,13 +4364,13 @@
         <v>159</v>
       </c>
       <c r="D64" t="n">
-        <v>7.69</v>
+        <v>5.52</v>
       </c>
       <c r="E64" t="n">
-        <v>5.15</v>
+        <v>1.14</v>
       </c>
       <c r="F64" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -4382,16 +4382,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3.48</v>
+        <v>2.56</v>
       </c>
       <c r="K64" t="n">
-        <v>2.05</v>
+        <v>0.59</v>
       </c>
       <c r="L64" t="n">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4411,13 +4411,13 @@
         <v>160</v>
       </c>
       <c r="D65" t="n">
-        <v>6.08</v>
+        <v>4.88</v>
       </c>
       <c r="E65" t="n">
-        <v>4.04</v>
+        <v>1.59</v>
       </c>
       <c r="F65" t="n">
-        <v>1.69</v>
+        <v>0.06</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -4429,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.49</v>
+        <v>2.82</v>
       </c>
       <c r="K65" t="n">
-        <v>1.94</v>
+        <v>0.71</v>
       </c>
       <c r="L65" t="n">
-        <v>0.52</v>
+        <v>0.03</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4505,16 +4505,16 @@
         <v>163</v>
       </c>
       <c r="D67" t="n">
-        <v>2.87</v>
+        <v>2.02</v>
       </c>
       <c r="E67" t="n">
-        <v>1.62</v>
+        <v>0.36</v>
       </c>
       <c r="F67" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4523,16 +4523,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="K67" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.69</v>
+        <v>0.26</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.97</v>
+        <v>1.18</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
